--- a/module-1-excel-essentials-for-ai/python-in-excel-features-demo.xlsx
+++ b/module-1-excel-essentials-for-ai/python-in-excel-features-demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\blog-files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\python-powered-excel-with-ai\module-1-excel-essentials-for-ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B548DBC8-6B8F-4688-A349-DFD10F38E2DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D465316-893A-49D5-BE88-FBB8E58C5335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" activeTab="1" xr2:uid="{9C0D6B3D-BF38-4EC0-B560-276A782F5215}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{9C0D6B3D-BF38-4EC0-B560-276A782F5215}"/>
   </bookViews>
   <sheets>
     <sheet name="world-pop" sheetId="3" r:id="rId1"/>
@@ -44,53 +44,6 @@
 </connections>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="2">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="2">
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="2"/>
-        </ext>
-      </extLst>
-    </bk>
-    <bk>
-      <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
-          <xlrd:rvb i="3"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-  <valueMetadata count="2">
-    <bk>
-      <rc t="2" v="0"/>
-    </bk>
-    <bk>
-      <rc t="2" v="1"/>
-    </bk>
-  </valueMetadata>
-</metadata>
-</file>
-
 <file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
 <python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
   <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
@@ -108,23 +61,11 @@
 </code>
     </initialization>
   </environmentDefinition>
-  <pythonScripts>
-    <pythonScript>
-      <code>wiki_df = xl(%P2%)</code>
-    </pythonScript>
-    <pythonScript>
-      <code>nyc_df = xl(%P2%, headers=True)
-nyc_df['Density'] = nyc_df['Population']/nyc_df['Land area']
-sns.barplot(x='Borough', y='Density', data=nyc_df)
-plt.ylabel('Population density per square mile')
-plt.title('Population density by borough')</code>
-    </pythonScript>
-  </pythonScripts>
 </python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Borough</t>
   </si>
@@ -148,6 +89,12 @@
   </si>
   <si>
     <t>Staten Island</t>
+  </si>
+  <si>
+    <t>Data table source:</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/List_of_countries_by_population_(United_Nations)</t>
   </si>
 </sst>
 </file>
@@ -205,292 +152,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>462594</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>70302</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="Image generated by Python">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81701DC1-B9C6-6CC2-3928-EE9410C427DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-          <a:extLst>
-            <a:ext uri="{53484399-7A02-498B-ADA4-41CD10E50FAC}">
-              <aif:imageFormula xmlns:aif="http://schemas.microsoft.com/office/drawing/2022/imageformula" formula="'nyc-pop'!E1"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3708798" y="0"/>
-          <a:ext cx="5385827" cy="4142240"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
-<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
-  <global>
-    <keyFlags>
-      <key name="_Self">
-        <flag name="ExcludeFromFile" value="1"/>
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_DisplayString">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Flags">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Format">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_SubLabel">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Attribution">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Icon">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_Display">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_CanonicalPropertyNames">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-      <key name="_ClassificationId">
-        <flag name="ExcludeFromCalcComparison" value="1"/>
-      </key>
-    </keyFlags>
-  </global>
-</rvTypesInfo>
-</file>
-
-<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
-<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
-  <a r="12" c="7">
-    <v t="s"/>
-    <v t="s">Country or territory</v>
-    <v t="s">2022 Population</v>
-    <v t="s">2023 Population</v>
-    <v t="s">Change(%)</v>
-    <v t="s">UN continentalregion[1]</v>
-    <v t="s">UN statisticalsubregion[1]</v>
-    <v>0</v>
-    <v t="s">India</v>
-    <v>1425423212</v>
-    <v>1438069596</v>
-    <v t="s">+0.89%</v>
-    <v t="s">Asia</v>
-    <v t="s">Southern Asia</v>
-    <v>1</v>
-    <v t="s">China[a]</v>
-    <v>1425179569</v>
-    <v>1422584933</v>
-    <v t="s">−0.18%</v>
-    <v t="s">Asia</v>
-    <v t="s">Eastern Asia</v>
-    <v>2</v>
-    <v t="s">United States</v>
-    <v>341534046</v>
-    <v>343477335</v>
-    <v t="s">+0.57%</v>
-    <v t="s">Americas</v>
-    <v t="s">Northern America</v>
-    <v>3</v>
-    <v t="s">Indonesia</v>
-    <v>278830529</v>
-    <v>281190067</v>
-    <v t="s">+0.85%</v>
-    <v t="s">Asia</v>
-    <v t="s">South-eastern Asia</v>
-    <v>4</v>
-    <v t="s">Pakistan</v>
-    <v>243700667</v>
-    <v>247504495</v>
-    <v t="s">+1.56%</v>
-    <v t="s">Asia</v>
-    <v t="s">Southern Asia</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v t="s">...</v>
-    <v>232</v>
-    <v t="s">Montserrat (United Kingdom)</v>
-    <v>4453</v>
-    <v>4420</v>
-    <v t="s">−0.74%</v>
-    <v t="s">Americas</v>
-    <v t="s">Caribbean</v>
-    <v>233</v>
-    <v t="s">Falkland Islands (United Kingdom)</v>
-    <v>3490</v>
-    <v>3477</v>
-    <v t="s">−0.37%</v>
-    <v t="s">Americas</v>
-    <v t="s">South America</v>
-    <v>234</v>
-    <v t="s">Tokelau (New Zealand)</v>
-    <v>2290</v>
-    <v>2397</v>
-    <v t="s">+4.67%</v>
-    <v t="s">Oceania</v>
-    <v t="s">Polynesia</v>
-    <v>235</v>
-    <v t="s">Niue (New Zealand)</v>
-    <v>1821</v>
-    <v>1817</v>
-    <v t="s">−0.22%</v>
-    <v t="s">Oceania</v>
-    <v t="s">Polynesia</v>
-    <v>236</v>
-    <v t="s">Vatican City[x]</v>
-    <v>505</v>
-    <v>496</v>
-    <v t="s">−1.78%</v>
-    <v t="s">Europe</v>
-    <v t="s">Southern Europe</v>
-  </a>
-</arrayData>
-</file>
-
-<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <rv s="0">
-    <v>0</v>
-  </rv>
-  <rv s="1">
-    <v>DataFrame</v>
-    <v>1</v>
-    <v>0</v>
-  </rv>
-  <rv s="2">
-    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
-    <v>DataFrame</v>
-    <v xml:space="preserve">                  Country or territory  2022 Population  2023 Population  \
-0                                India       1425423212       1438069596   
-1                             China[a]       1425179569       1422584933   
-2                       ...</v>
-    <v>1</v>
-    <v>2</v>
-  </rv>
-  <rv s="3">
-    <v>0</v>
-    <v>9</v>
-    <v>Image generated by Python</v>
-  </rv>
-</rvData>
-</file>
-
-<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="4">
-  <s t="_array">
-    <k n="array" t="a"/>
-  </s>
-  <s t="_entity">
-    <k n="_DisplayString" t="s"/>
-    <k n="_ViewInfo" t="spb"/>
-    <k n="arrayPreview" t="r"/>
-  </s>
-  <s t="_python">
-    <k n="Python_type" t="s"/>
-    <k n="Python_typeName" t="s"/>
-    <k n="Python_str" t="s"/>
-    <k n="preview" t="r"/>
-    <k n="_Provider" t="spb"/>
-  </s>
-  <s t="_localImage">
-    <k n="_rvRel:LocalImageIdentifier" t="i"/>
-    <k n="CalcOrigin" t="i"/>
-    <k n="Text" t="s"/>
-  </s>
-</rvStructures>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
-<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbData count="3">
-    <spb s="0">
-      <v>237</v>
-      <v>6</v>
-      <v>DataFrame</v>
-      <v>arrayPreview</v>
-      <v>1</v>
-    </spb>
-    <spb s="1">
-      <v>0</v>
-    </spb>
-    <spb s="2">
-      <v>https://www.anaconda.com/excel</v>
-      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
-      <v>Python provided by Anaconda</v>
-    </spb>
-  </spbData>
-</supportingPropertyBags>
-</file>
-
-<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
-  <s>
-    <k n="drw" t="i"/>
-    <k n="dcol" t="i"/>
-    <k n="name" t="s"/>
-    <k n="array" t="s"/>
-    <k n="headers" t="b"/>
-  </s>
-  <s>
-    <k n="ArrayCardInfo" t="spb"/>
-  </s>
-  <s>
-    <k n="link" t="s"/>
-    <k n="logo" t="s"/>
-    <k n="name" t="s"/>
-  </s>
-</spbStructures>
-</file>
-
-<file path=xl/richData/richValueRel.xml><?xml version="1.0" encoding="utf-8"?>
-<richValueRels xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/richvaluerel" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <rel r:id="rId1"/>
-</richValueRels>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -822,9 +483,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8CB7DB5-8192-4599-A035-56E943A257DA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
@@ -838,9 +499,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="e" cm="1" vm="1">
-        <f t="array" ref="A1">_xlfn._xlws.PY(0,1,_xlfn.PQSOURCE("debd453c-ff02-45a6-9b08-20631a52546f"))</f>
-        <v>#VALUE!</v>
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -850,9 +515,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D9F98A-6DDF-431D-80CD-9E57B5ACF976}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -865,7 +530,7 @@
     <col min="7" max="7" width="8.3125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -875,12 +540,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="e" cm="1" vm="2">
-        <f t="array" ref="E1">_xlfn._xlws.PY(1,0,nyc[#All])</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -891,7 +552,7 @@
         <v>42.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -902,7 +563,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -913,7 +574,7 @@
         <v>22.7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -924,7 +585,7 @@
         <v>108.7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -944,9 +605,8 @@
     <hyperlink ref="A2" r:id="rId5" tooltip="The Bronx" display="https://en.wikipedia.org/wiki/The_Bronx" xr:uid="{6FDB66D4-EE1B-48C2-B366-643A15E5AC15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
